--- a/data/trans_bre/P2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,91</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,11</t>
+          <t>-10,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,57%</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,5%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>-6,98%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-10,9%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,66%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 6,89</t>
+          <t>-10,99; 6,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 7,34</t>
+          <t>-14,05; 5,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,86; -0,03</t>
+          <t>-18,63; 7,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,21; -0,07</t>
+          <t>-23,91; 5,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 7,49</t>
+          <t>-20,36; 12,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 8,22</t>
+          <t>-11,28; 7,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,59; -0,13</t>
+          <t>-14,27; 5,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,01; -0,58</t>
+          <t>-19,39; 8,01</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-25,01; 6,17</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-21,46; 15,36</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,31</t>
+          <t>15,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>13,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>18,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-2,67%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 10,6</t>
+          <t>-8,96; 4,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 32,89</t>
+          <t>-3,46; 50,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 26,98</t>
+          <t>-4,4; 51,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 41,25</t>
+          <t>-2,5; 58,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 12,72</t>
+          <t>-12,75; 3,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 52,55</t>
+          <t>-9,24; 4,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 40,57</t>
+          <t>-3,72; 115,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 75,01</t>
+          <t>-4,48; 111,22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 148,49</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-13,16; 3,93</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>-2,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>8,37%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,33%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 5,9</t>
+          <t>-7,71; 2,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 28,76</t>
+          <t>-4,19; 9,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 12,09</t>
+          <t>0,45; 19,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 10,16</t>
+          <t>-0,03; 18,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 6,46</t>
+          <t>-4,28; 5,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 42,81</t>
+          <t>-7,83; 2,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 14,32</t>
+          <t>-4,24; 10,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 11,87</t>
+          <t>0,49; 24,65</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 22,66</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 5,92</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,19</t>
+          <t>-0,81; 11,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 6,52</t>
+          <t>-2,85; 9,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 7,19</t>
+          <t>-6,6; 8,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 7,11</t>
+          <t>-4,94; 10,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 11,56</t>
+          <t>0,0; 5,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 7,06</t>
+          <t>-0,82; 13,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 7,99</t>
+          <t>-2,89; 10,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 7,83</t>
+          <t>-6,84; 9,78</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 12,02</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,31</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,5%</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 1,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 1,84</t>
+          <t>0,0; 7,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 2,87</t>
+          <t>0,0; 6,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 3,31</t>
+          <t>0,0; 7,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 1,62</t>
+          <t>1,13; 11,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 1,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 3,04</t>
+          <t>0,0; 7,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 3,43</t>
+          <t>0,0; 7,37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 13,07</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,59</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,93</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,37%</t>
+          <t>-3,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,76%</t>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 7,17</t>
+          <t>-12,68; 6,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 4,01</t>
+          <t>-9,49; 16,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 0,62</t>
+          <t>-10,01; 13,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 2,31</t>
+          <t>-8,85; 12,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 8,03</t>
+          <t>-3,17; 9,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 4,26</t>
+          <t>-13,1; 7,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 0,57</t>
+          <t>-9,93; 19,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 2,34</t>
+          <t>-10,06; 16,24</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; 15,77</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 9,74</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,04%</t>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,13</t>
+          <t>-3,57; 1,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,95</t>
+          <t>-0,88; 13,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 3,0</t>
+          <t>-1,03; 13,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 3,51</t>
+          <t>-1,06; 16,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,34</t>
+          <t>-3,09; 3,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 10,46</t>
+          <t>-3,63; 1,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 3,28</t>
+          <t>-0,92; 16,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 3,95</t>
+          <t>-1,14; 16,85</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 21,4</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 3,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
